--- a/arekh.xlsx
+++ b/arekh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C8CDD1-659D-4DD0-9EC4-229F66B261E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC1B25-E3A0-40B4-A24D-A0C62503AC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -288,15 +288,6 @@
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -429,56 +420,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,26 +440,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,9 +843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4:J4"/>
+      <selection pane="topRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -864,70 +857,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
@@ -940,85 +933,85 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:27" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="14"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="19">
+      <c r="C9" s="21"/>
+      <c r="D9" s="22">
         <v>25</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20">
+      <c r="E9" s="22"/>
+      <c r="F9" s="33">
         <v>75</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20">
+      <c r="G9" s="22"/>
+      <c r="H9" s="33">
         <v>100</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:27" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="23"/>
@@ -1027,41 +1020,44 @@
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25">
+      <c r="A11" s="11">
         <v>7005401</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="11">
         <v>22</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="14" t="str">
         <f>IF(D11&gt;=22.5,"A+",IF(D11&gt;=20,"A",IF(I16:I17D11&gt;=17.5,"B+",IF(D11&gt;=15,"B",IF(D11&gt;=12.5,"C+",IF(D11&gt;=10,"C",IF(D11&gt;=7.5,"C",IF(D11&gt;=5,"D+",IF(D11&gt;=2.5,"D","E")))))))))</f>
         <v>A</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="14">
         <v>56</v>
       </c>
-      <c r="G11" s="28" t="str">
+      <c r="G11" s="14" t="str">
         <f>IF(F11&gt;=72.5,"A+",IF(F11&gt;=60,"A",IF(F11&gt;=52.5,"B+",IF(F11&gt;=45,"B",IF(F11&gt;=32.5,"C+",IF(F11&gt;=30,"C",IF(F11&gt;=22.5,"C",IF(F11&gt;=15,"D+",IF(F11&gt;=7.5,"D","E")))))))))</f>
         <v>B+</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="14">
         <f>D11+F11</f>
         <v>78</v>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="13" t="str">
         <f>IF(H11&gt;=90,"A+",IF(H11&gt;=80,"A",IF(H11&gt;=70,"B+",IF(H11&gt;=60,"B",IF(H11&gt;=50,"C+",IF(H11&gt;=40,"C",IF(H11&gt;=30,"C",IF(H11&gt;=20,"D+",IF(H11&gt;=10,"D","E")))))))))</f>
         <v>B+</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="37" t="str">
+        <f>IF(H11&gt;=90,"4.0",IF(H11&gt;=80,"3.6",IF(H11&gt;=70,"3.2",IF(H11&gt;=60,"2.8",IF(H11&gt;=50,"2.4",IF(H11&gt;=40,"2.0",IF(H11&gt;=30,"1.6",IF(H11&gt;=20,"1.2",IF(H11&gt;=10,"1.0","0.8")))))))))</f>
+        <v>3.2</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1081,300 +1077,336 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12" s="25">
+      <c r="A12" s="11">
         <v>7005402</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="11">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="14" t="str">
         <f t="shared" ref="E12:E20" si="0">IF(D12&gt;=22.5,"A+",IF(D12&gt;=20,"A",IF(D12&gt;=17.5,"B+",IF(D12&gt;=15,"B",IF(D12&gt;=12.5,"C+",IF(D12&gt;=10,"C",IF(D12&gt;=7.5,"C",IF(D12&gt;=5,"D+",IF(D12&gt;=2.5,"D","E")))))))))</f>
         <v>A+</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="11">
         <v>59</v>
       </c>
-      <c r="G12" s="28" t="str">
+      <c r="G12" s="14" t="str">
         <f t="shared" ref="G12:G20" si="1">IF(F12&gt;=72.5,"A+",IF(F12&gt;=60,"A",IF(F12&gt;=52.5,"B+",IF(F12&gt;=45,"B",IF(F12&gt;=32.5,"C+",IF(F12&gt;=30,"C",IF(F12&gt;=22.5,"C",IF(F12&gt;=15,"D+",IF(F12&gt;=7.5,"D","E")))))))))</f>
         <v>B+</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="14">
         <f>D12+F12</f>
         <v>83</v>
       </c>
-      <c r="I12" s="27" t="str">
+      <c r="I12" s="13" t="str">
         <f>IF(H12&gt;=90,"A+",IF(H12&gt;=80,"A",IF(H12&gt;=70,"B+",IF(H12&gt;=60,"B",IF(H12&gt;=50,"C+",IF(H12&gt;=40,"C",IF(H12&gt;=30,"C",IF(H12&gt;=20,"D+",IF(H12&gt;=10,"D","E")))))))))</f>
         <v>A</v>
       </c>
+      <c r="J12" s="37" t="str">
+        <f t="shared" ref="J12:J20" si="2">IF(H12&gt;=90,"4.0",IF(H12&gt;=80,"3.6",IF(H12&gt;=70,"3.2",IF(H12&gt;=60,"2.8",IF(H12&gt;=50,"2.4",IF(H12&gt;=40,"2.0",IF(H12&gt;=30,"1.6",IF(H12&gt;=20,"1.2",IF(H12&gt;=10,"1.0","0.8")))))))))</f>
+        <v>3.6</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A13" s="25">
+      <c r="A13" s="11">
         <v>7005403</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="11">
         <v>25</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="11">
         <v>65</v>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="H13" s="28">
-        <f t="shared" ref="H13:H20" si="2">D13+F13</f>
+      <c r="H13" s="14">
+        <f t="shared" ref="H13:H20" si="3">D13+F13</f>
         <v>90</v>
       </c>
-      <c r="I13" s="27" t="str">
-        <f t="shared" ref="I13:I20" si="3">IF(H13&gt;=90,"A+",IF(H13&gt;=80,"A",IF(H13&gt;=70,"B+",IF(H13&gt;=60,"B",IF(H13&gt;=50,"C+",IF(H13&gt;=40,"C",IF(H13&gt;=30,"C",IF(H13&gt;=20,"D+",IF(H13&gt;=10,"D","E")))))))))</f>
+      <c r="I13" s="13" t="str">
+        <f t="shared" ref="I13:I20" si="4">IF(H13&gt;=90,"A+",IF(H13&gt;=80,"A",IF(H13&gt;=70,"B+",IF(H13&gt;=60,"B",IF(H13&gt;=50,"C+",IF(H13&gt;=40,"C",IF(H13&gt;=30,"C",IF(H13&gt;=20,"D+",IF(H13&gt;=10,"D","E")))))))))</f>
         <v>A+</v>
       </c>
+      <c r="J13" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>4.0</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14" s="25">
+      <c r="A14" s="11">
         <v>7005404</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="11">
         <v>23</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="11">
         <v>74</v>
       </c>
-      <c r="G14" s="28" t="str">
+      <c r="G14" s="14" t="str">
         <f t="shared" si="1"/>
         <v>A+</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="14">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="I14" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>A+</v>
+      </c>
+      <c r="J14" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="I14" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>A+</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" s="25">
+      <c r="A15" s="11">
         <v>7005405</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="11">
         <v>20</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="11">
         <v>30</v>
       </c>
-      <c r="G15" s="28" t="str">
+      <c r="G15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="I15" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>C+</v>
+      </c>
+      <c r="J15" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I15" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>C+</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16" s="25">
+      <c r="A16" s="11">
         <v>7005406</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="11">
         <v>13</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>C+</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="11">
         <v>50</v>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="14" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="14">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="I16" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="J16" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="I16" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="25">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
         <v>7005407</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="11">
         <v>15</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="11">
         <v>38</v>
       </c>
-      <c r="G17" s="28" t="str">
+      <c r="G17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>C+</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="14">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="I17" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>C+</v>
+      </c>
+      <c r="J17" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="I17" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>C+</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="25">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
         <v>7005408</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="11">
         <v>15</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="11">
         <v>32</v>
       </c>
-      <c r="G18" s="28" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="14">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="I18" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="J18" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="I18" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
         <v>7005409</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="11">
         <v>23</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="11">
         <v>63</v>
       </c>
-      <c r="G19" s="28" t="str">
+      <c r="G19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="14">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="I19" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="J19" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="I19" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
         <v>7005410</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="11">
         <v>22</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="11">
         <v>48</v>
       </c>
-      <c r="G20" s="28" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="14">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="I20" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>B+</v>
+      </c>
+      <c r="J20" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="I20" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>B+</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -1382,11 +1414,6 @@
     <sortCondition ref="B11:B20"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:E10"/>
     <mergeCell ref="D1:J2"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D4:J4"/>
@@ -1395,6 +1422,11 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="J8:J10"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
